--- a/analisis_att_telcel.xlsx
+++ b/analisis_att_telcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nieto\Google Drive\python\proyectos\att_getmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A8AA76-05F0-4EF7-A315-67B971530412}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32FDE50-0B1F-4D1B-A821-0F5DCDCE61B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A70C7AE0-2C06-43B8-AE4B-0D89E3AE1E82}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>Recarga</t>
   </si>
@@ -865,7 +865,7 @@
   <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
